--- a/KeywordDrivenFramework/testdata/LoginPage.xlsx
+++ b/KeywordDrivenFramework/testdata/LoginPage.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login_testdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin_facet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -64,6 +65,15 @@
     <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
   </si>
   <si>
+    <t>verifyloginpage</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>orangehrm-login-branding</t>
+  </si>
+  <si>
     <t>EnterUsername</t>
   </si>
   <si>
@@ -101,6 +111,45 @@
   </si>
   <si>
     <t>clicklogin</t>
+  </si>
+  <si>
+    <t>verifyHomePage</t>
+  </si>
+  <si>
+    <t>//h6[@class='oxd-text oxd-text--h6 oxd-topbar-header-breadcrumb-module']</t>
+  </si>
+  <si>
+    <t>verifyhomepage</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>ClickOnAdminFacet</t>
+  </si>
+  <si>
+    <t>//span[text()='Admin']</t>
+  </si>
+  <si>
+    <t>clickOnAdminFacet</t>
+  </si>
+  <si>
+    <t>EnterSystemUserName</t>
+  </si>
+  <si>
+    <t>(//input[@class='oxd-input oxd-input--active'])[2]</t>
+  </si>
+  <si>
+    <t>enterSystemUserName</t>
+  </si>
+  <si>
+    <t>SearchUser</t>
+  </si>
+  <si>
+    <t>//button[text()=' Search ']</t>
+  </si>
+  <si>
+    <t>searchUserName</t>
   </si>
 </sst>
 </file>
@@ -108,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -130,6 +179,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -138,54 +215,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +254,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -214,61 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,49 +344,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,133 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,76 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +580,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,148 +655,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,18 +1138,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="15.4545454545455" customWidth="1"/>
-    <col min="4" max="6" width="14.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="14.8181818181818" customWidth="1"/>
+    <col min="5" max="5" width="72.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="14.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="69.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1160,16 +1211,16 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1183,17 +1234,17 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1204,19 +1255,19 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1227,18 +1278,181 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="15.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="18.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/KeywordDrivenFramework/testdata/LoginPage.xlsx
+++ b/KeywordDrivenFramework/testdata/LoginPage.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Login_testdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin_facet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -83,7 +82,7 @@
     <t>username</t>
   </si>
   <si>
-    <t>enterusername</t>
+    <t>setText</t>
   </si>
   <si>
     <t>Admin</t>
@@ -95,9 +94,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>enterpassword</t>
-  </si>
-  <si>
     <t>admin123</t>
   </si>
   <si>
@@ -110,7 +106,7 @@
     <t>//button[contains(@class,'oxd-button oxd-button--medium oxd-button--main orangehrm-login-button')]</t>
   </si>
   <si>
-    <t>clicklogin</t>
+    <t>click</t>
   </si>
   <si>
     <t>verifyHomePage</t>
@@ -131,25 +127,16 @@
     <t>//span[text()='Admin']</t>
   </si>
   <si>
-    <t>clickOnAdminFacet</t>
-  </si>
-  <si>
     <t>EnterSystemUserName</t>
   </si>
   <si>
     <t>(//input[@class='oxd-input oxd-input--active'])[2]</t>
   </si>
   <si>
-    <t>enterSystemUserName</t>
-  </si>
-  <si>
     <t>SearchUser</t>
   </si>
   <si>
     <t>//button[text()=' Search ']</t>
-  </si>
-  <si>
-    <t>searchUserName</t>
   </si>
 </sst>
 </file>
@@ -157,8 +144,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -179,45 +166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,21 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -254,47 +197,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,16 +258,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,19 +331,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,31 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,127 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,39 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,6 +551,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,11 +581,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,23 +611,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,127 +663,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,13 +1125,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.7272727272727" customWidth="1"/>
     <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
@@ -1287,10 +1274,10 @@
         <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1301,158 +1288,110 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="10.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="18.1818181818182" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
